--- a/30.查漏补缺/03.js和css加载顺序说明/js css加载顺序.xlsx
+++ b/30.查漏补缺/03.js和css加载顺序说明/js css加载顺序.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cczq3/Desktop/vue-pra/30.查漏补缺/03.js和css加载顺序说明/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF62D5A6-8914-984D-81FA-3E01874C62DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1938BF8E-7CA4-C947-9EB9-3D80967AAD32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17720" yWindow="9680" windowWidth="43140" windowHeight="25720" xr2:uid="{6CAD5C09-308C-254C-9542-33AA1632460C}"/>
+    <workbookView xWindow="5420" yWindow="5800" windowWidth="43140" windowHeight="25720" xr2:uid="{6CAD5C09-308C-254C-9542-33AA1632460C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.页面到等到所有的css文件加载完毕才会渲染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>特殊情形:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.对于这个defer的外链script不会阻塞页面的加载，但会影响页面的渲染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>defer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,10 +256,6 @@
   </si>
   <si>
     <t>对前面的js文件存在依赖关系的可能由于它的优先加载而报找不到方法的错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.使用async的script下载时不会阻塞渲染</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -298,6 +286,18 @@
     <t>1.defer是在页面都加载完毕后开始加载defer的js文件，同是defer的也会按defer这一类的顺序执行
 2.一般处理放在head中的外链script文件，不会影响页面DOM加载，不会找不到标签，相当于将scritp放在body下面
 3.defer的加载放在页面正常加载的所有js，css之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.页面到等到所有的css文件加载完毕才会渲染(不会等js加载完才渲染)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.使用async的script下载时不会阻塞渲染，使用defer也是不会阻塞的，js写在body下面也不会阻塞，只有当js放在head里面才会阻塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.只有body里面的js才会影响Dom解析，价格defer就解决了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -927,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262D4282-408C-BF4C-9B84-F4EE16935275}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="125" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.1640625" defaultRowHeight="21"/>
@@ -975,7 +975,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="4"/>
       <c r="F2" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="138" customHeight="1">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>5</v>
@@ -1017,7 +1017,7 @@
     <row r="5" spans="1:6" ht="58" customHeight="1">
       <c r="A5" s="30"/>
       <c r="B5" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>4</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="57" customHeight="1">
@@ -1217,67 +1217,67 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="65" customHeight="1">
       <c r="A19" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="91" customHeight="1">
       <c r="A20" s="26"/>
       <c r="B20" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="29"/>
       <c r="F20" s="12" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="70" customHeight="1">
       <c r="A21" s="26"/>
       <c r="B21" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" ht="63" customHeight="1">
+    <row r="22" spans="1:6" ht="78" customHeight="1">
       <c r="A22" s="27"/>
       <c r="B22" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="24"/>
       <c r="E22" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
